--- a/data/trans_camb/IP7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,55</t>
+          <t>-4,39; 0,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,43</t>
+          <t>-5,72; -1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,21</t>
+          <t>-4,12; 1,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,34</t>
+          <t>-0,9; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,95</t>
+          <t>-1,56; 1,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,51</t>
+          <t>-0,63; 3,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,77</t>
+          <t>-2,16; 1,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,65</t>
+          <t>-3,07; -0,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,99</t>
+          <t>-1,69; 1,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,39%</t>
+          <t>-46,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-26,0%</t>
+          <t>-86,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-50,52%</t>
+          <t>-30,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>86,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-37,96%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>126,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,37%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,18%</t>
+          <t>-68,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,76%</t>
+          <t>-1,13%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 69,48</t>
+          <t>-80,64; 36,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,97; 56,23</t>
+          <t>-100,0; -46,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 16,2</t>
+          <t>-78,04; 96,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,23; 79,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,86; 65,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 182,08</t>
+          <t>-60,1; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,03; 30,58</t>
+          <t>-66,32; 69,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,85; 31,18</t>
+          <t>-90,24; -21,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 43,11</t>
+          <t>-55,75; 124,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-1,14</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,67</t>
+          <t>-3,32; 1,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -1,41</t>
+          <t>-3,85; 1,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,87</t>
+          <t>-4,38; 0,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,83</t>
+          <t>-2,95; 1,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,38</t>
+          <t>-3,59; 0,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,48</t>
+          <t>-2,1; 3,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,06</t>
+          <t>-2,71; 0,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; -0,51</t>
+          <t>-2,65; 0,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,81</t>
+          <t>-2,4; 0,99</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-46,11%</t>
+          <t>-20,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-86,57%</t>
+          <t>-26,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>-50,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>-27,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>-37,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>126,08%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-21,04%</t>
+          <t>-23,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-68,73%</t>
+          <t>-31,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-22,76%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,64; 36,97</t>
+          <t>-64,14; 69,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -46,27</t>
+          <t>-73,97; 56,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 96,03</t>
+          <t>-79,61; 16,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,23; 79,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,86; 65,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,1; —</t>
+          <t>-51,33; 182,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,32; 69,8</t>
+          <t>-61,03; 30,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,24; -21,02</t>
+          <t>-64,85; 31,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 124,65</t>
+          <t>-58,45; 43,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,37 +632,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,56</t>
+          <t>-1,87; 4,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,63</t>
+          <t>-1,7; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,48</t>
+          <t>-0,09; 11,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,64</t>
+          <t>-0,41; 5,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,8</t>
+          <t>-1,6; 2,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,85</t>
+          <t>-1,33; 5,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,44</t>
+          <t>-0,19; 3,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,85</t>
+          <t>-0,93; 3,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,62</t>
+          <t>0,15; 6,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,62%</t>
+          <t>60,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>67,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>201,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>274,09%</t>
+          <t>221,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>262,08%</t>
+          <t>79,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>117,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>106,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>169,68%</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,6; 120,24</t>
+          <t>-56,46; 699,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,25; 162,16</t>
+          <t>-58,02; 785,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 235,14</t>
+          <t>-38,45; 1535,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,52; 1571,05</t>
+          <t>-62,3; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 1603,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 192,76</t>
+          <t>-19,26; 534,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 239,61</t>
+          <t>-44,58; 480,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-48,23; 202,89</t>
+          <t>-19,37; 874,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,67</t>
+          <t>-5,19; -1,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -1,41</t>
+          <t>-4,97; -0,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,87</t>
+          <t>-4,14; 0,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,83</t>
+          <t>-0,15; 3,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,38</t>
+          <t>-0,19; 3,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,48</t>
+          <t>-0,53; 3,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,06</t>
+          <t>-2,11; 0,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; -0,51</t>
+          <t>-1,84; 0,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,81</t>
+          <t>-1,97; 1,15</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-46,11%</t>
+          <t>-78,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-86,57%</t>
+          <t>-71,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>-50,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>164,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>198,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>126,08%</t>
+          <t>111,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,04%</t>
+          <t>-36,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-68,73%</t>
+          <t>-25,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-21,07%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,64; 36,97</t>
+          <t>-94,92; -24,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -46,27</t>
+          <t>-93,34; -9,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 96,03</t>
+          <t>-87,0; 57,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,37; 1194,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,11; 1422,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,1; —</t>
+          <t>-82,35; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,32; 69,8</t>
+          <t>-72,33; 43,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,24; -21,02</t>
+          <t>-67,27; 71,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 124,65</t>
+          <t>-69,91; 80,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,55</t>
+          <t>-6,29; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,43</t>
+          <t>-6,98; 0,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,21</t>
+          <t>-7,01; 0,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,34</t>
+          <t>-2,48; 2,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,95</t>
+          <t>-3,53; 1,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,51</t>
+          <t>-2,02; 4,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,77</t>
+          <t>-3,82; 1,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,65</t>
+          <t>-4,4; 0,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,99</t>
+          <t>-3,55; 1,23</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,39%</t>
+          <t>-44,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,0%</t>
+          <t>-56,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,52%</t>
+          <t>-55,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-37,96%</t>
+          <t>-31,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>60,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,37%</t>
+          <t>-32,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-31,18%</t>
+          <t>-50,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,76%</t>
+          <t>-25,77%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 69,48</t>
+          <t>-81,13; 43,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,97; 56,23</t>
+          <t>-85,81; 28,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 16,2</t>
+          <t>-83,93; 22,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,23; 79,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,86; 65,6</t>
+          <t>-91,57; 300,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 182,08</t>
+          <t>-64,53; 628,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,03; 30,58</t>
+          <t>-71,56; 45,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,85; 31,18</t>
+          <t>-76,98; 17,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 43,11</t>
+          <t>-65,82; 49,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,41</t>
+          <t>-1,91; 3,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; -0,04</t>
+          <t>-3,29; 2,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,38</t>
+          <t>-3,6; 0,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,83</t>
+          <t>-3,54; 1,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,34</t>
+          <t>-3,48; 1,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,68</t>
+          <t>-2,59; 3,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,68</t>
+          <t>-2,14; 1,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,25</t>
+          <t>-2,65; 0,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,93</t>
+          <t>-2,5; 1,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-29,26%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-40,83%</t>
+          <t>-24,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-32,66%</t>
+          <t>-38,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>-32,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>-34,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-24,23%</t>
+          <t>-29,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>-20,63%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 14,7</t>
+          <t>-49,52; 239,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,92; 3,64</t>
+          <t>-79,49; 161,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 15,58</t>
+          <t>-81,78; 75,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 162,32</t>
+          <t>-80,89; 129,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 117,53</t>
+          <t>-83,12; 124,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 242,63</t>
+          <t>-64,5; 265,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 31,75</t>
+          <t>-56,37; 94,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 13,67</t>
+          <t>-68,97; 47,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 44,25</t>
+          <t>-62,4; 70,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 0,53</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; -0,01</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 0,37</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 1,91</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 1,38</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 2,78</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 0,76</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 0,31</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-29,26%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-40,83%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-32,66%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>37,05%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>58,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-24,23%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-4,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-57,59; 20,51</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-67,48; 0,3</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-60,09; 15,7</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-30,56; 163,03</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-37,75; 114,98</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,64; 231,28</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-37,56; 32,83</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-50,76; 16,8</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-36,75; 46,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,54</t>
+          <t>-2,06; 4,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,22</t>
+          <t>-1,75; 5,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 11,55</t>
+          <t>-0,65; 10,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,07</t>
+          <t>-0,19; 5,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,83</t>
+          <t>-1,28; 3,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 5,57</t>
+          <t>-1,18; 5,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,86</t>
+          <t>-0,46; 3,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,38</t>
+          <t>-1,07; 3,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 6,64</t>
+          <t>-0,07; 6,8</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,46; 699,37</t>
+          <t>-59,73; 621,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 785,12</t>
+          <t>-60,17; 733,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 1535,15</t>
+          <t>-27,81; 1296,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,3; —</t>
+          <t>-60,17; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 534,91</t>
+          <t>-27,49; 519,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 480,75</t>
+          <t>-42,86; 383,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 874,62</t>
+          <t>-28,5; 921,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -1,08</t>
+          <t>-5,19; -0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,62</t>
+          <t>-4,95; -0,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,68</t>
+          <t>-4,26; 0,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,26</t>
+          <t>-0,35; 3,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,82</t>
+          <t>-0,26; 3,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,38</t>
+          <t>-0,8; 3,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,52</t>
+          <t>-2,11; 0,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,96</t>
+          <t>-2,01; 0,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,15</t>
+          <t>-1,93; 1,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-94,92; -24,51</t>
+          <t>-100,0; -21,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,34; -9,35</t>
+          <t>-93,66; -4,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,0; 57,98</t>
+          <t>-88,22; 52,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 1194,37</t>
+          <t>-49,81; 1319,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,11; 1422,81</t>
+          <t>-47,58; 1158,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,35; —</t>
+          <t>-85,08; 1127,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,33; 43,49</t>
+          <t>-74,71; 56,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,27; 71,82</t>
+          <t>-70,05; 69,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-69,91; 80,81</t>
+          <t>-68,68; 98,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 1,12</t>
+          <t>-5,9; 1,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 0,34</t>
+          <t>-6,93; -0,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,14</t>
+          <t>-7,08; 0,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,74</t>
+          <t>-2,96; 2,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,58</t>
+          <t>-3,5; 1,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,5</t>
+          <t>-1,69; 4,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,01</t>
+          <t>-3,98; 1,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,19</t>
+          <t>-4,2; 0,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,23</t>
+          <t>-3,56; 1,45</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,13; 43,86</t>
+          <t>-80,05; 53,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,81; 28,38</t>
+          <t>-86,78; 6,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,93; 22,19</t>
+          <t>-85,3; 21,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,27 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-91,57; 300,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,53; 628,12</t>
+          <t>-51,13; 682,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,56; 45,36</t>
+          <t>-70,89; 49,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,98; 17,56</t>
+          <t>-77,78; 14,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 49,61</t>
+          <t>-67,56; 68,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,74</t>
+          <t>-1,73; 3,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,3</t>
+          <t>-3,43; 2,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,99</t>
+          <t>-3,84; 1,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,9</t>
+          <t>-3,64; 1,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,76</t>
+          <t>-3,88; 1,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,77</t>
+          <t>-2,8; 3,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,92</t>
+          <t>-1,99; 1,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,93</t>
+          <t>-2,75; 0,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,31</t>
+          <t>-2,46; 1,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 239,9</t>
+          <t>-46,73; 271,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,49; 161,67</t>
+          <t>-83,84; 146,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-81,78; 75,04</t>
+          <t>-82,04; 69,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-80,89; 129,28</t>
+          <t>-81,31; 136,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,12; 124,2</t>
+          <t>-87,58; 100,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,5; 265,13</t>
+          <t>-70,52; 222,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 94,72</t>
+          <t>-49,61; 94,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,97; 47,21</t>
+          <t>-72,87; 51,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 70,06</t>
+          <t>-62,87; 67,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,53</t>
+          <t>-2,56; 0,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,01</t>
+          <t>-2,76; -0,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,37</t>
+          <t>-2,61; 0,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,91</t>
+          <t>-0,63; 1,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,38</t>
+          <t>-0,94; 1,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,78</t>
+          <t>-0,3; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,76</t>
+          <t>-1,13; 0,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,31</t>
+          <t>-1,53; 0,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,98</t>
+          <t>-1,11; 0,97</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 20,51</t>
+          <t>-56,52; 13,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-67,48; 0,3</t>
+          <t>-63,33; 2,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 15,7</t>
+          <t>-60,46; 10,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 163,03</t>
+          <t>-30,18; 145,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 114,98</t>
+          <t>-41,68; 115,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 231,28</t>
+          <t>-17,51; 213,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 32,83</t>
+          <t>-36,3; 37,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 16,8</t>
+          <t>-49,96; 16,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 46,5</t>
+          <t>-37,76; 45,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,33</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>1,49</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,45</t>
+          <t>-0,25; 5,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 5,35</t>
+          <t>-1,46; 3,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 10,15</t>
+          <t>-1,05; 6,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,58</t>
+          <t>-1,84; 4,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,14</t>
+          <t>-1,79; 5,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,79</t>
+          <t>0,44; 12,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,85</t>
+          <t>-0,39; 3,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,01</t>
+          <t>-0,92; 3,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 6,8</t>
+          <t>0,36; 7,86</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>221,45%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>79,03%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>129,96%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>60,55%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>67,72%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>201,28%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>221,45%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>79,03%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>117,8%</t>
+          <t>234,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>169,68%</t>
+          <t>199,04%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,73; 621,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,17; 733,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 1296,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,17; —</t>
+          <t>-58,06; 610,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,67; 679,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,08; 1434,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 519,18</t>
+          <t>-21,99; 582,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 383,74</t>
+          <t>-44,29; 414,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 921,0</t>
+          <t>-15,65; 959,8</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-2,74</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-2,5</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -0,9</t>
+          <t>-0,26; 3,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,64</t>
+          <t>-0,12; 3,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,73</t>
+          <t>-0,57; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,27</t>
+          <t>-5,13; -0,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,75</t>
+          <t>-4,75; -0,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,32</t>
+          <t>-4,06; 0,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,61</t>
+          <t>-2,07; 0,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,87</t>
+          <t>-1,9; 0,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,27</t>
+          <t>-1,92; 1,45</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>164,25%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>198,6%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>121,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-78,48%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-71,72%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-50,79%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>164,25%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>198,6%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>111,29%</t>
+          <t>-47,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,07%</t>
+          <t>-16,84%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -21,73</t>
+          <t>-49,12; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,66; -4,84</t>
+          <t>-43,97; 1491,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,22; 52,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 1319,1</t>
+          <t>-94,73; -28,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 1158,52</t>
+          <t>-93,21; 8,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,08; 1127,95</t>
+          <t>-84,51; 70,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,71; 56,42</t>
+          <t>-72,74; 39,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,05; 69,57</t>
+          <t>-68,74; 71,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,68; 98,45</t>
+          <t>-69,18; 102,08</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-2,52</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-3,16</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,08</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,24</t>
+          <t>-3,03; 2,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -0,03</t>
+          <t>-3,51; 1,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 0,12</t>
+          <t>-1,6; 4,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,61</t>
+          <t>-6,72; 0,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,39</t>
+          <t>-7,23; 0,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,61</t>
+          <t>-7,03; 0,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,1</t>
+          <t>-3,64; 0,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 0,19</t>
+          <t>-4,16; 0,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,45</t>
+          <t>-3,65; 1,42</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-31,06%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>62,75%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-44,97%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-56,43%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-55,03%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-31,06%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,8%</t>
+          <t>-53,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-25,77%</t>
+          <t>-24,77%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,05; 53,24</t>
+          <t>-86,74; 344,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,78; 6,99</t>
+          <t>-90,37; 272,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,3; 21,41</t>
+          <t>-56,93; 661,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,07; 40,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,17; 34,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 682,85</t>
+          <t>-84,78; 43,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,89; 49,87</t>
+          <t>-69,04; 40,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,78; 14,34</t>
+          <t>-78,12; 7,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 68,69</t>
+          <t>-64,13; 63,74</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,73</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,04</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,88</t>
+          <t>-3,6; 1,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,05</t>
+          <t>-3,66; 1,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,0</t>
+          <t>-2,18; 8,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,81</t>
+          <t>-1,99; 4,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,61</t>
+          <t>-3,19; 2,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,59</t>
+          <t>-3,55; 0,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,86</t>
+          <t>-2,05; 2,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,95</t>
+          <t>-2,84; 1,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,37</t>
+          <t>-2,15; 3,23</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-32,06%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-34,17%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>32,16%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>26,98%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-24,89%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-38,05%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-32,06%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-34,17%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-40,32%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-20,63%</t>
+          <t>-5,39%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 271,21</t>
+          <t>-84,58; 128,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,84; 146,06</t>
+          <t>-85,27; 105,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,04; 69,32</t>
+          <t>-62,8; 536,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-81,31; 136,81</t>
+          <t>-49,2; 201,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,58; 100,3</t>
+          <t>-80,65; 141,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 222,34</t>
+          <t>-80,34; 70,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 94,43</t>
+          <t>-52,49; 106,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-72,87; 51,87</t>
+          <t>-69,89; 58,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,87; 67,78</t>
+          <t>-58,74; 155,38</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-1,03</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-1,44</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,33</t>
+          <t>-0,6; 1,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; -0,06</t>
+          <t>-0,97; 1,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,26</t>
+          <t>-0,08; 4,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,79</t>
+          <t>-2,51; 0,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,32</t>
+          <t>-2,99; -0,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,62</t>
+          <t>-2,74; 0,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,81</t>
+          <t>-1,15; 0,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,34</t>
+          <t>-1,49; 0,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,97</t>
+          <t>-0,84; 1,68</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>37,05%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>85,63%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-29,26%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-40,83%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-32,66%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>37,05%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>11,97%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>-30,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 13,61</t>
+          <t>-28,29; 162,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,33; 2,01</t>
+          <t>-41,59; 117,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,46; 10,83</t>
+          <t>-12,81; 350,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 145,12</t>
+          <t>-59,51; 14,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 115,22</t>
+          <t>-65,92; 3,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 213,65</t>
+          <t>-61,17; 20,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 37,2</t>
+          <t>-36,2; 31,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,96; 16,15</t>
+          <t>-48,15; 13,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 45,38</t>
+          <t>-28,71; 74,12</t>
         </is>
       </c>
     </row>
